--- a/Win32/Binaries/Table/servanttreasure.xlsx
+++ b/Win32/Binaries/Table/servanttreasure.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="合成公式" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="309">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -244,10 +245,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青釭剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,200 +301,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普普通通的装备，随处可见。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有点牛逼的装备，不轻易弄到。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吊炸天的装备，可遇不可求。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/bishou.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/canjuan.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/yuzhu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/maobi.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/toujin.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/jiecaohuan.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/xiangnang.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/mayi.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/zhujian.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/taomujian.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/yupei.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/langhao.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/mianfu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/maoweiba.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/zheshan.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/xiaokmianju.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/shaobang.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/touchai.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/bainiaochaofeng.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/shuixiu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/chunqiu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/xiaohou.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/dingkui.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/fulinling.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/qingnang.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/qinghongjian.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/ruyi.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/huahu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/tuihufu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/zhaoyang.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/zhaofu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/jinlian.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>image/mernary_equip_icon/wanxiangquanshu.png</t>
   </si>
   <si>
-    <t>image/mernary_equip_icon/wanxiangquanshu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>image/mernary_equip_icon/qinglongyanyue.png</t>
   </si>
   <si>
-    <t>image/mernary_equip_icon/qinglongyanyue.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>image/mernary_equip_icon/shixi.png</t>
   </si>
   <si>
-    <t>image/mernary_equip_icon/shixi.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>image/mernary_equip_icon/shanhesheji.png</t>
   </si>
   <si>
-    <t>image/mernary_equip_icon/shanhesheji.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>image/mernary_equip_icon/qingshanliushui.png</t>
   </si>
   <si>
-    <t>image/mernary_equip_icon/qingshanliushui.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>image/mernary_equip_icon/fahua.png</t>
   </si>
   <si>
-    <t>image/mernary_equip_icon/fahua.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>image/mernary_equip_icon/qingfeng.png</t>
   </si>
   <si>
-    <t>image/mernary_equip_icon/qingfeng.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>image/mernary_equip_icon/ruhu.png</t>
-  </si>
-  <si>
-    <t>image/mernary_equip_icon/ruhu.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Res</t>
@@ -727,13 +552,534 @@
   </si>
   <si>
     <t>吊炸天的装备，可遇不可求。</t>
+  </si>
+  <si>
+    <t>bishou.png</t>
+  </si>
+  <si>
+    <t>canjuan.png</t>
+  </si>
+  <si>
+    <t>yuzhu.png</t>
+  </si>
+  <si>
+    <t>mayi.png</t>
+  </si>
+  <si>
+    <t>maobi.png</t>
+  </si>
+  <si>
+    <t>toujin.png</t>
+  </si>
+  <si>
+    <t>jiecaohuan.png</t>
+  </si>
+  <si>
+    <t>xiangnang.png</t>
+  </si>
+  <si>
+    <t>taomujian.png</t>
+  </si>
+  <si>
+    <t>zhujian.png</t>
+  </si>
+  <si>
+    <t>yupei.png</t>
+  </si>
+  <si>
+    <t>mianfu.png</t>
+  </si>
+  <si>
+    <t>langhao.png</t>
+  </si>
+  <si>
+    <t>xiaokmianju.png</t>
+  </si>
+  <si>
+    <t>maoweiba.png</t>
+  </si>
+  <si>
+    <t>zheshan.png</t>
+  </si>
+  <si>
+    <t>shaobang.png</t>
+  </si>
+  <si>
+    <t>chunqiu.png</t>
+  </si>
+  <si>
+    <t>touchai.png</t>
+  </si>
+  <si>
+    <t>bainiaochaofeng.png</t>
+  </si>
+  <si>
+    <t>shuixiu.png</t>
+  </si>
+  <si>
+    <t>dingkui.png</t>
+  </si>
+  <si>
+    <t>xiaohou.png</t>
+  </si>
+  <si>
+    <t>fulinling.png</t>
+  </si>
+  <si>
+    <t>qinghongjian.png</t>
+  </si>
+  <si>
+    <t>qingnang.png</t>
+  </si>
+  <si>
+    <t>ruyi.png</t>
+  </si>
+  <si>
+    <t>tuihufu.png</t>
+  </si>
+  <si>
+    <t>huahu.png</t>
+  </si>
+  <si>
+    <t>jinlian.png</t>
+  </si>
+  <si>
+    <t>zhaofu.png</t>
+  </si>
+  <si>
+    <t>zhaoyang.png</t>
+  </si>
+  <si>
+    <t>qinglongyanyue.png</t>
+  </si>
+  <si>
+    <t>wanxiangquanshu.png</t>
+  </si>
+  <si>
+    <t>shixi.png</t>
+  </si>
+  <si>
+    <t>qingshanliushui.png</t>
+  </si>
+  <si>
+    <t>shanhesheji.png</t>
+  </si>
+  <si>
+    <t>fahua.png</t>
+  </si>
+  <si>
+    <t>ruhu.png</t>
+  </si>
+  <si>
+    <t>qingfeng.png</t>
+  </si>
+  <si>
+    <t>青虹剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙鸣钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韵力核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪灵蛇像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#servantEquip</t>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#servantEquip_1001.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_1002.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_1003.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_1004.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_1005.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_1006.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_1007.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_1008.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_2001.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_2002.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_2003.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_2004.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_2005.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_2006.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_2007.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_2008.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_3001.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_3002.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_3003.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_3004.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_3005.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_3006.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_3007.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_3008.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_4001.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_4002.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_4003.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_4004.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_4005.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_4006.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_4007.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_4008.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_5001.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_5002.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_5003.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_5004.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_5005.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_5006.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_5007.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_5008.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_6001.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_6002.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_6003.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_6004.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_6005.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_6006.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_6007.png</t>
+  </si>
+  <si>
+    <t>#servantEquip_6008.png</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getpathId</t>
+  </si>
+  <si>
+    <t>getpathId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取途径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通铁匠打造的匕首，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺角少页的书卷，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河珠所制的饰品，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗布制成的衣服，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写字用的毛笔，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗布制成的头巾，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草叶结成的环饰，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装有艾草的香囊，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游方道士常用的桃木剑，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些年头了的简牍，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岫玉制的玉佩，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉布制的保暖衣物，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方常见的书写用笔，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庙会上常见的小面具，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形似猫尾的稚童玩具，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士子手持的折扇，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行脚常备的木制棍棒，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书局常见的史书钞本，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子常用的木制头钗，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小康人家常见的横幅绘卷，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传统民族服饰，衣袖较长，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戏曲中将领的头饰，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货郎贩卖的小猴面具，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻盈小巧的铃铛，随处可见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢锻造的宝剑，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记有传奇医术的医书，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白玉所制的精巧如意，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣有猛虎图案的上品劲装，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制笔名家所制的虎豪大楷，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寓意地涌金莲的装饰品，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能招来财运的奇特摆件，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘有旭日东升图的象牙折扇，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名匠打造的青龙偃月刀，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸多学者编著的古今图书之集大成者，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翡翠打造的精品印鉴，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣衫轻薄如雾，通透名贵，不易获得。</t>
+  </si>
+  <si>
+    <t>绘有猫土山川河流的地图绘卷，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>象征佛家圆满、微妙无上的饰品，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇者身份得象征，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缂丝工艺制成的桐叶式宫扇，不易获得。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以火鸟造型为杖首的奇特拐杖，可遇不可求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙形浮雕环绕的青铜大钟，可遇不可求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面有神秘符印的青铜巨鼎，可遇不可求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受神奇力量祝福的京剧猫装备，可遇不可求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知从而来的神奇玉石，可遇不可求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内含神秘力量的神奇果实，可遇不可求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手宗机关术所制的神奇道具，可遇不可求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会吸收混沌力量的奇怪蛇形石像，可遇不可求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -756,13 +1102,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -789,20 +1148,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -822,7 +1186,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="期望属性"/>
-      <sheetName val="Sheet1"/>
+      <sheetName val="各属性战力划分"/>
       <sheetName val="全系统性价比"/>
       <sheetName val="裸属性"/>
       <sheetName val="装备属性分配"/>
@@ -831,11 +1195,7 @@
       <sheetName val="韵纹"/>
       <sheetName val="佣兵"/>
       <sheetName val="时装"/>
-      <sheetName val="非付费"/>
-      <sheetName val="大R"/>
-      <sheetName val="极端情况1宝石"/>
-      <sheetName val="极端情况2佣兵"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="佣兵组合"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -860,7 +1220,7 @@
             <v>6</v>
           </cell>
           <cell r="F25">
-            <v>0.8</v>
+            <v>0.77</v>
           </cell>
         </row>
         <row r="26">
@@ -868,7 +1228,7 @@
             <v>7</v>
           </cell>
           <cell r="F26">
-            <v>0.8</v>
+            <v>0.77</v>
           </cell>
         </row>
         <row r="27">
@@ -876,7 +1236,7 @@
             <v>1</v>
           </cell>
           <cell r="F27">
-            <v>3.4000000000000002E-2</v>
+            <v>5.3999999999999999E-2</v>
           </cell>
         </row>
         <row r="28">
@@ -884,7 +1244,7 @@
             <v>2</v>
           </cell>
           <cell r="F28">
-            <v>100</v>
+            <v>30</v>
           </cell>
         </row>
         <row r="29">
@@ -892,7 +1252,7 @@
             <v>3</v>
           </cell>
           <cell r="F29">
-            <v>4.5</v>
+            <v>0.5</v>
           </cell>
         </row>
         <row r="30">
@@ -900,7 +1260,7 @@
             <v>16</v>
           </cell>
           <cell r="F30">
-            <v>12</v>
+            <v>2.5</v>
           </cell>
         </row>
         <row r="31">
@@ -908,7 +1268,7 @@
             <v>10</v>
           </cell>
           <cell r="F31">
-            <v>10</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="32">
@@ -916,7 +1276,7 @@
             <v>9</v>
           </cell>
           <cell r="F32">
-            <v>10</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="33">
@@ -924,7 +1284,7 @@
             <v>23</v>
           </cell>
           <cell r="F33">
-            <v>5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="34">
@@ -932,7 +1292,7 @@
             <v>25</v>
           </cell>
           <cell r="F34">
-            <v>3.5</v>
+            <v>0.7</v>
           </cell>
         </row>
         <row r="35">
@@ -940,7 +1300,7 @@
             <v>24</v>
           </cell>
           <cell r="F35">
-            <v>5</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="36">
@@ -978,16 +1338,12 @@
       <sheetData sheetId="8">
         <row r="59">
           <cell r="J59">
-            <v>82</v>
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1282,14 +1638,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="49.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1302,7 +1662,7 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -1349,7 +1709,9 @@
       <c r="R1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
@@ -1364,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1408,7 +1770,9 @@
       <c r="R2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
@@ -1419,11 +1783,11 @@
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>73</v>
+      <c r="C3" t="s">
+        <v>260</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1432,14 +1796,14 @@
         <v>4</v>
       </c>
       <c r="G3" s="1">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1447,7 +1811,9 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="S3" s="1">
+        <v>91001</v>
+      </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
@@ -1458,11 +1824,11 @@
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>73</v>
+      <c r="C4" t="s">
+        <v>261</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>209</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1471,14 +1837,14 @@
         <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1486,7 +1852,9 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="S4" s="1">
+        <v>91002</v>
+      </c>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
@@ -1497,11 +1865,11 @@
       <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
+      <c r="C5" t="s">
+        <v>262</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1510,14 +1878,14 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>893</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1525,7 +1893,9 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1">
+        <v>91003</v>
+      </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
@@ -1536,11 +1906,11 @@
       <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>73</v>
+      <c r="C6" t="s">
+        <v>263</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -1549,14 +1919,14 @@
         <v>6</v>
       </c>
       <c r="G6" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1564,7 +1934,9 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="S6" s="1">
+        <v>91004</v>
+      </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
@@ -1575,11 +1947,11 @@
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>73</v>
+      <c r="C7" t="s">
+        <v>264</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1588,14 +1960,14 @@
         <v>5</v>
       </c>
       <c r="G7" s="1">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1603,7 +1975,9 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1">
+        <v>91005</v>
+      </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
@@ -1614,11 +1988,11 @@
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>73</v>
+      <c r="C8" t="s">
+        <v>265</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -1627,14 +2001,14 @@
         <v>7</v>
       </c>
       <c r="G8" s="1">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1642,7 +2016,9 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
+      <c r="S8" s="1">
+        <v>91006</v>
+      </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
@@ -1653,11 +2029,11 @@
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>73</v>
+      <c r="C9" t="s">
+        <v>266</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -1666,14 +2042,14 @@
         <v>23</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1681,7 +2057,9 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
+      <c r="S9" s="1">
+        <v>91007</v>
+      </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
@@ -1692,11 +2070,11 @@
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>73</v>
+      <c r="C10" t="s">
+        <v>267</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1705,14 +2083,14 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1340</v>
+        <v>71</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1720,7 +2098,9 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1">
+        <v>91008</v>
+      </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
@@ -1731,11 +2111,11 @@
       <c r="B11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>73</v>
+      <c r="C11" t="s">
+        <v>268</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -1744,14 +2124,14 @@
         <v>4</v>
       </c>
       <c r="G11" s="1">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1">
         <v>1001</v>
@@ -1763,7 +2143,9 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
@@ -1774,11 +2156,11 @@
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>73</v>
+      <c r="C12" t="s">
+        <v>269</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -1787,14 +2169,14 @@
         <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="M12" s="1">
         <v>1002</v>
@@ -1806,7 +2188,9 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
@@ -1817,11 +2201,11 @@
       <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>73</v>
+      <c r="C13" t="s">
+        <v>270</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -1830,14 +2214,14 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>1161</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="M13" s="1">
         <v>1003</v>
@@ -1849,7 +2233,9 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
@@ -1860,11 +2246,11 @@
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>73</v>
+      <c r="C14" t="s">
+        <v>271</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>219</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -1873,14 +2259,14 @@
         <v>6</v>
       </c>
       <c r="G14" s="1">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="M14" s="1">
         <v>1004</v>
@@ -1892,7 +2278,9 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
@@ -1903,11 +2291,11 @@
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
+      <c r="C15" t="s">
+        <v>272</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -1916,26 +2304,32 @@
         <v>5</v>
       </c>
       <c r="G15" s="1">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <v>107</v>
-      </c>
-      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
         <v>1005</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="3">
         <v>2</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
@@ -1946,11 +2340,11 @@
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>73</v>
+      <c r="C16" t="s">
+        <v>273</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>221</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -1959,26 +2353,32 @@
         <v>7</v>
       </c>
       <c r="G16" s="1">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <v>36</v>
-      </c>
-      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1002</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
         <v>1006</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="3">
         <v>2</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
@@ -1989,11 +2389,11 @@
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>73</v>
+      <c r="C17" t="s">
+        <v>274</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -2002,26 +2402,32 @@
         <v>23</v>
       </c>
       <c r="G17" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1">
-        <v>30</v>
-      </c>
-      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1003</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
         <v>1007</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="3">
         <v>2</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
@@ -2032,11 +2438,11 @@
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>73</v>
+      <c r="C18" t="s">
+        <v>275</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -2045,26 +2451,32 @@
         <v>1</v>
       </c>
       <c r="G18" s="1">
-        <v>1742</v>
+        <v>107</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1">
-        <v>59</v>
-      </c>
-      <c r="M18" s="1">
+        <v>6</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1004</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
         <v>1008</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="3">
         <v>2</v>
       </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
@@ -2075,11 +2487,11 @@
       <c r="B19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
+      <c r="C19" t="s">
+        <v>276</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -2088,14 +2500,14 @@
         <v>4</v>
       </c>
       <c r="G19" s="1">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="M19" s="1">
         <v>1001</v>
@@ -2104,14 +2516,16 @@
         <v>2</v>
       </c>
       <c r="O19" s="1">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="P19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
@@ -2122,11 +2536,11 @@
       <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
+      <c r="C20" t="s">
+        <v>277</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -2135,30 +2549,32 @@
         <v>3</v>
       </c>
       <c r="G20" s="1">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1">
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="M20" s="1">
         <v>1002</v>
       </c>
       <c r="N20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O20" s="1">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="P20" s="1">
         <v>2</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
@@ -2169,11 +2585,11 @@
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>73</v>
+      <c r="C21" t="s">
+        <v>278</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -2182,30 +2598,32 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>1510</v>
+        <v>95</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="M21" s="1">
         <v>1003</v>
       </c>
       <c r="N21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O21" s="1">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="P21" s="1">
         <v>2</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
@@ -2216,11 +2634,11 @@
       <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>73</v>
+      <c r="C22" t="s">
+        <v>279</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -2229,20 +2647,20 @@
         <v>6</v>
       </c>
       <c r="G22" s="1">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="M22" s="1">
         <v>1004</v>
       </c>
       <c r="N22" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O22" s="1">
         <v>1005</v>
@@ -2252,7 +2670,9 @@
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
@@ -2263,11 +2683,11 @@
       <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>73</v>
+      <c r="C23" t="s">
+        <v>280</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -2276,20 +2696,20 @@
         <v>5</v>
       </c>
       <c r="G23" s="1">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="M23" s="1">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N23" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O23" s="1">
         <v>1006</v>
@@ -2299,7 +2719,9 @@
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
@@ -2310,11 +2732,11 @@
       <c r="B24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>73</v>
+      <c r="C24" t="s">
+        <v>281</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -2323,30 +2745,32 @@
         <v>7</v>
       </c>
       <c r="G24" s="1">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="M24" s="1">
         <v>1006</v>
       </c>
       <c r="N24" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O24" s="1">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="P24" s="1">
         <v>2</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
@@ -2357,11 +2781,11 @@
       <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>73</v>
+      <c r="C25" t="s">
+        <v>282</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -2370,30 +2794,32 @@
         <v>23</v>
       </c>
       <c r="G25" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="M25" s="1">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N25" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O25" s="1">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="P25" s="1">
         <v>2</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
@@ -2404,11 +2830,11 @@
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
+      <c r="C26" t="s">
+        <v>283</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -2417,14 +2843,14 @@
         <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>2264</v>
+        <v>142</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="M26" s="1">
         <v>1008</v>
@@ -2438,9 +2864,15 @@
       <c r="P26" s="1">
         <v>2</v>
       </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="Q26" s="1">
+        <v>1003</v>
+      </c>
+      <c r="R26" s="1">
+        <v>2</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
@@ -2449,13 +2881,13 @@
         <v>4001</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>74</v>
+        <v>196</v>
+      </c>
+      <c r="C27" t="s">
+        <v>284</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -2464,14 +2896,14 @@
         <v>4</v>
       </c>
       <c r="G27" s="1">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="M27" s="1">
         <v>1001</v>
@@ -2480,14 +2912,20 @@
         <v>4</v>
       </c>
       <c r="O27" s="1">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P27" s="1">
         <v>4</v>
       </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="Q27" s="1">
+        <v>1008</v>
+      </c>
+      <c r="R27" s="1">
+        <v>2</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
@@ -2498,11 +2936,11 @@
       <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>74</v>
+      <c r="C28" t="s">
+        <v>285</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="E28" s="1">
         <v>4</v>
@@ -2511,14 +2949,14 @@
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="M28" s="1">
         <v>1002</v>
@@ -2527,14 +2965,16 @@
         <v>4</v>
       </c>
       <c r="O28" s="1">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="P28" s="1">
         <v>4</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
@@ -2543,13 +2983,13 @@
         <v>4003</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>286</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="E29" s="1">
         <v>4</v>
@@ -2558,14 +2998,14 @@
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <v>1962</v>
+        <v>142</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="M29" s="1">
         <v>1003</v>
@@ -2581,7 +3021,9 @@
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
@@ -2590,13 +3032,13 @@
         <v>4004</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="E30" s="1">
         <v>4</v>
@@ -2605,14 +3047,14 @@
         <v>6</v>
       </c>
       <c r="G30" s="1">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M30" s="1">
         <v>1004</v>
@@ -2628,7 +3070,9 @@
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
@@ -2637,13 +3081,13 @@
         <v>4005</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>288</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
@@ -2652,14 +3096,14 @@
         <v>5</v>
       </c>
       <c r="G31" s="1">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="M31" s="1">
         <v>1005</v>
@@ -2675,7 +3119,9 @@
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
@@ -2684,13 +3130,13 @@
         <v>4006</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>289</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="E32" s="1">
         <v>4</v>
@@ -2699,14 +3145,14 @@
         <v>7</v>
       </c>
       <c r="G32" s="1">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M32" s="1">
         <v>1006</v>
@@ -2722,7 +3168,9 @@
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
@@ -2731,13 +3179,13 @@
         <v>4007</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>290</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c r="E33" s="1">
         <v>4</v>
@@ -2746,14 +3194,14 @@
         <v>23</v>
       </c>
       <c r="G33" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="M33" s="1">
         <v>1007</v>
@@ -2769,7 +3217,9 @@
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
@@ -2778,13 +3228,13 @@
         <v>4008</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>291</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="E34" s="1">
         <v>4</v>
@@ -2793,14 +3243,14 @@
         <v>1</v>
       </c>
       <c r="G34" s="1">
-        <v>2944</v>
+        <v>213</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="M34" s="1">
         <v>1008</v>
@@ -2816,7 +3266,9 @@
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
@@ -2825,13 +3277,13 @@
         <v>5001</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>292</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="E35" s="1">
         <v>4</v>
@@ -2840,14 +3292,14 @@
         <v>4</v>
       </c>
       <c r="G35" s="1">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="M35" s="1">
         <v>1001</v>
@@ -2863,7 +3315,9 @@
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
@@ -2872,13 +3326,13 @@
         <v>5002</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>293</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>109</v>
+        <v>241</v>
       </c>
       <c r="E36" s="1">
         <v>4</v>
@@ -2887,14 +3341,14 @@
         <v>3</v>
       </c>
       <c r="G36" s="1">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="M36" s="1">
         <v>1002</v>
@@ -2910,7 +3364,9 @@
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
@@ -2919,13 +3375,13 @@
         <v>5003</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>294</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>113</v>
+        <v>242</v>
       </c>
       <c r="E37" s="1">
         <v>4</v>
@@ -2934,14 +3390,14 @@
         <v>1</v>
       </c>
       <c r="G37" s="1">
-        <v>2551</v>
+        <v>199</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="M37" s="1">
         <v>1003</v>
@@ -2957,7 +3413,9 @@
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
@@ -2966,13 +3424,13 @@
         <v>5004</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>295</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="E38" s="1">
         <v>4</v>
@@ -2981,14 +3439,14 @@
         <v>6</v>
       </c>
       <c r="G38" s="1">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M38" s="1">
         <v>1004</v>
@@ -3004,7 +3462,9 @@
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
+      <c r="S38" s="1">
+        <v>0</v>
+      </c>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
@@ -3013,13 +3473,13 @@
         <v>5005</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>296</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
@@ -3028,14 +3488,14 @@
         <v>5</v>
       </c>
       <c r="G39" s="1">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="M39" s="1">
         <v>1005</v>
@@ -3051,7 +3511,9 @@
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
@@ -3060,13 +3522,13 @@
         <v>5006</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>297</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="E40" s="1">
         <v>4</v>
@@ -3075,14 +3537,14 @@
         <v>7</v>
       </c>
       <c r="G40" s="1">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M40" s="1">
         <v>1006</v>
@@ -3098,7 +3560,9 @@
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
@@ -3107,13 +3571,13 @@
         <v>5007</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>298</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="E41" s="1">
         <v>4</v>
@@ -3122,14 +3586,14 @@
         <v>23</v>
       </c>
       <c r="G41" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="M41" s="1">
         <v>1007</v>
@@ -3145,7 +3609,9 @@
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
@@ -3154,13 +3620,13 @@
         <v>5008</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>299</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="E42" s="1">
         <v>4</v>
@@ -3169,14 +3635,14 @@
         <v>1</v>
       </c>
       <c r="G42" s="1">
-        <v>3827</v>
+        <v>299</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="M42" s="1">
         <v>1008</v>
@@ -3192,7 +3658,9 @@
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
@@ -3201,13 +3669,13 @@
         <v>6001</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>75</v>
+        <v>204</v>
+      </c>
+      <c r="C43" t="s">
+        <v>300</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
@@ -3216,14 +3684,14 @@
         <v>4</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -3231,7 +3699,9 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
+      <c r="S43" s="1">
+        <v>96001</v>
+      </c>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
@@ -3240,13 +3710,13 @@
         <v>6002</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>75</v>
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>301</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="E44" s="1">
         <v>5</v>
@@ -3255,14 +3725,14 @@
         <v>3</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -3270,7 +3740,9 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="S44" s="1">
+        <v>96002</v>
+      </c>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
@@ -3279,13 +3751,13 @@
         <v>6003</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>75</v>
+        <v>198</v>
+      </c>
+      <c r="C45" t="s">
+        <v>302</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
@@ -3294,14 +3766,14 @@
         <v>1</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -3309,7 +3781,9 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
+      <c r="S45" s="1">
+        <v>96003</v>
+      </c>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
@@ -3318,13 +3792,13 @@
         <v>6004</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>199</v>
+      </c>
+      <c r="C46" t="s">
+        <v>303</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
@@ -3333,14 +3807,14 @@
         <v>6</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -3348,7 +3822,9 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
+      <c r="S46" s="1">
+        <v>96004</v>
+      </c>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
@@ -3357,13 +3833,13 @@
         <v>6005</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>200</v>
+      </c>
+      <c r="C47" t="s">
+        <v>304</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="E47" s="1">
         <v>5</v>
@@ -3372,14 +3848,14 @@
         <v>5</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -3387,7 +3863,9 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
+      <c r="S47" s="1">
+        <v>96005</v>
+      </c>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
@@ -3396,13 +3874,13 @@
         <v>6006</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>75</v>
+        <v>201</v>
+      </c>
+      <c r="C48" t="s">
+        <v>305</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
@@ -3411,14 +3889,14 @@
         <v>7</v>
       </c>
       <c r="G48" s="1">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -3426,7 +3904,9 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
+      <c r="S48" s="1">
+        <v>96006</v>
+      </c>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
@@ -3435,13 +3915,13 @@
         <v>6007</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>75</v>
+        <v>202</v>
+      </c>
+      <c r="C49" t="s">
+        <v>307</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>122</v>
+        <v>254</v>
       </c>
       <c r="E49" s="1">
         <v>5</v>
@@ -3450,14 +3930,14 @@
         <v>23</v>
       </c>
       <c r="G49" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -3465,7 +3945,9 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
+      <c r="S49" s="1">
+        <v>96007</v>
+      </c>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
@@ -3474,13 +3956,13 @@
         <v>6008</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>75</v>
+        <v>203</v>
+      </c>
+      <c r="C50" t="s">
+        <v>306</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="E50" s="1">
         <v>5</v>
@@ -3489,14 +3971,14 @@
         <v>1</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -3504,7 +3986,9 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
+      <c r="S50" s="1">
+        <v>96008</v>
+      </c>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
@@ -3517,10 +4001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3583,7 +4067,9 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
@@ -3642,7 +4128,9 @@
       <c r="R2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
@@ -3651,13 +4139,13 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -3667,7 +4155,7 @@
       </c>
       <c r="G3" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A1)/8),0)</f>
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -3675,7 +4163,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2">
         <f ca="1">ROUND(G3*VLOOKUP(F3,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -3692,13 +4180,13 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -3708,7 +4196,7 @@
       </c>
       <c r="G4" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A1)/8),6)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -3716,7 +4204,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2">
         <f ca="1">ROUND(G4*VLOOKUP(F4,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -3733,13 +4221,13 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -3749,7 +4237,7 @@
       </c>
       <c r="G5" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A1)/8),5)</f>
-        <v>893</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -3757,7 +4245,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2">
         <f ca="1">ROUND(G5*VLOOKUP(F5,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3774,13 +4262,13 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -3790,7 +4278,7 @@
       </c>
       <c r="G6" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A1)/8),2)</f>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -3798,7 +4286,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2">
         <f ca="1">ROUND(G6*VLOOKUP(F6,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -3815,13 +4303,13 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -3831,7 +4319,7 @@
       </c>
       <c r="G7" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A1)/8),1)</f>
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -3839,7 +4327,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2">
         <f ca="1">ROUND(G7*VLOOKUP(F7,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3856,13 +4344,13 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -3872,7 +4360,7 @@
       </c>
       <c r="G8" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A1)/8),3)</f>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -3880,7 +4368,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2">
         <f ca="1">ROUND(G8*VLOOKUP(F8,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -3897,13 +4385,13 @@
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -3913,7 +4401,7 @@
       </c>
       <c r="G9" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A1)/8),7)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -3921,7 +4409,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2">
         <f ca="1">ROUND(G9*VLOOKUP(F9,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -3938,13 +4426,13 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -3954,7 +4442,7 @@
       </c>
       <c r="G10" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A1)/8),4)</f>
-        <v>1340</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3962,7 +4450,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2">
         <f ca="1">ROUND(G10*VLOOKUP(F10,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3979,13 +4467,13 @@
         <v>2001</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
@@ -3995,7 +4483,7 @@
       </c>
       <c r="G11" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A9)/8),0)</f>
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4003,7 +4491,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2">
         <f ca="1">ROUND(G11*VLOOKUP(F11,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="M11" s="1">
         <v>1001</v>
@@ -4024,13 +4512,13 @@
         <v>2002</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -4040,7 +4528,7 @@
       </c>
       <c r="G12" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A9)/8),6)</f>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -4048,7 +4536,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2">
         <f ca="1">ROUND(G12*VLOOKUP(F12,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="M12" s="1">
         <v>1002</v>
@@ -4069,13 +4557,13 @@
         <v>2003</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -4085,7 +4573,7 @@
       </c>
       <c r="G13" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A9)/8),5)</f>
-        <v>1161</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -4093,7 +4581,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <f ca="1">ROUND(G13*VLOOKUP(F13,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="M13" s="1">
         <v>1003</v>
@@ -4114,13 +4602,13 @@
         <v>2004</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -4130,7 +4618,7 @@
       </c>
       <c r="G14" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A9)/8),2)</f>
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -4138,7 +4626,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2">
         <f ca="1">ROUND(G14*VLOOKUP(F14,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="M14" s="1">
         <v>1004</v>
@@ -4159,13 +4647,13 @@
         <v>2005</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
@@ -4175,7 +4663,7 @@
       </c>
       <c r="G15" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A9)/8),1)</f>
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -4183,7 +4671,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2">
         <f ca="1">ROUND(G15*VLOOKUP(F15,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="M15" s="1">
         <v>1005</v>
@@ -4204,13 +4692,13 @@
         <v>2006</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1">
         <v>2</v>
@@ -4220,7 +4708,7 @@
       </c>
       <c r="G16" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A9)/8),3)</f>
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -4228,7 +4716,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2">
         <f ca="1">ROUND(G16*VLOOKUP(F16,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="M16" s="1">
         <v>1006</v>
@@ -4249,13 +4737,13 @@
         <v>2007</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -4265,7 +4753,7 @@
       </c>
       <c r="G17" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A9)/8),7)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -4273,7 +4761,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2">
         <f ca="1">ROUND(G17*VLOOKUP(F17,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="M17" s="1">
         <v>1007</v>
@@ -4294,13 +4782,13 @@
         <v>2008</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -4310,7 +4798,7 @@
       </c>
       <c r="G18" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A9)/8),4)</f>
-        <v>1742</v>
+        <v>107</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -4318,7 +4806,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2">
         <f ca="1">ROUND(G18*VLOOKUP(F18,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="M18" s="1">
         <v>1008</v>
@@ -4339,13 +4827,13 @@
         <v>3001</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
@@ -4355,7 +4843,7 @@
       </c>
       <c r="G19" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A17)/8),0)</f>
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -4363,7 +4851,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2">
         <f ca="1">ROUND(G19*VLOOKUP(F19,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="M19" s="1">
         <v>1001</v>
@@ -4388,13 +4876,13 @@
         <v>3002</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="E20" s="1">
         <v>3</v>
@@ -4404,7 +4892,7 @@
       </c>
       <c r="G20" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A17)/8),6)</f>
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -4412,7 +4900,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2">
         <f ca="1">ROUND(G20*VLOOKUP(F20,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>149</v>
+        <v>7</v>
       </c>
       <c r="M20" s="1">
         <v>1002</v>
@@ -4437,13 +4925,13 @@
         <v>3003</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="E21" s="1">
         <v>3</v>
@@ -4453,7 +4941,7 @@
       </c>
       <c r="G21" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A17)/8),5)</f>
-        <v>1510</v>
+        <v>95</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -4461,7 +4949,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2">
         <f ca="1">ROUND(G21*VLOOKUP(F21,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="M21" s="1">
         <v>1003</v>
@@ -4486,13 +4974,13 @@
         <v>3004</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E22" s="1">
         <v>3</v>
@@ -4502,7 +4990,7 @@
       </c>
       <c r="G22" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A17)/8),2)</f>
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -4510,7 +4998,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2">
         <f ca="1">ROUND(G22*VLOOKUP(F22,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="M22" s="1">
         <v>1004</v>
@@ -4535,13 +5023,13 @@
         <v>3005</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -4551,7 +5039,7 @@
       </c>
       <c r="G23" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A17)/8),1)</f>
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -4559,7 +5047,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2">
         <f ca="1">ROUND(G23*VLOOKUP(F23,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="M23" s="1">
         <v>1005</v>
@@ -4584,13 +5072,13 @@
         <v>3006</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E24" s="1">
         <v>3</v>
@@ -4600,7 +5088,7 @@
       </c>
       <c r="G24" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A17)/8),3)</f>
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -4608,7 +5096,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2">
         <f ca="1">ROUND(G24*VLOOKUP(F24,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="M24" s="1">
         <v>1006</v>
@@ -4633,13 +5121,13 @@
         <v>3007</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
@@ -4649,7 +5137,7 @@
       </c>
       <c r="G25" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A17)/8),7)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -4657,7 +5145,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2">
         <f ca="1">ROUND(G25*VLOOKUP(F25,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="M25" s="1">
         <v>1007</v>
@@ -4682,13 +5170,13 @@
         <v>3008</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="E26" s="1">
         <v>3</v>
@@ -4698,7 +5186,7 @@
       </c>
       <c r="G26" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A17)/8),4)</f>
-        <v>2264</v>
+        <v>142</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -4706,7 +5194,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2">
         <f ca="1">ROUND(G26*VLOOKUP(F26,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="M26" s="1">
         <v>1008</v>
@@ -4731,13 +5219,13 @@
         <v>4001</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" ref="E27:E34" si="0">E19+1</f>
@@ -4748,7 +5236,7 @@
       </c>
       <c r="G27" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A25)/8),0)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -4756,7 +5244,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2">
         <f ca="1">ROUND(G27*VLOOKUP(F27,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="M27" s="1">
         <v>1001</v>
@@ -4781,13 +5269,13 @@
         <v>4002</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
@@ -4798,7 +5286,7 @@
       </c>
       <c r="G28" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A25)/8),6)</f>
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -4806,7 +5294,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2">
         <f ca="1">ROUND(G28*VLOOKUP(F28,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="M28" s="1">
         <v>1002</v>
@@ -4831,13 +5319,13 @@
         <v>4003</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
@@ -4848,7 +5336,7 @@
       </c>
       <c r="G29" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A25)/8),5)</f>
-        <v>1962</v>
+        <v>142</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -4856,7 +5344,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2">
         <f ca="1">ROUND(G29*VLOOKUP(F29,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="M29" s="1">
         <v>1003</v>
@@ -4881,13 +5369,13 @@
         <v>4004</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
@@ -4898,7 +5386,7 @@
       </c>
       <c r="G30" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A25)/8),2)</f>
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -4906,7 +5394,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2">
         <f ca="1">ROUND(G30*VLOOKUP(F30,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M30" s="1">
         <v>1004</v>
@@ -4931,13 +5419,13 @@
         <v>4005</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
@@ -4948,7 +5436,7 @@
       </c>
       <c r="G31" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A25)/8),1)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -4956,7 +5444,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2">
         <f ca="1">ROUND(G31*VLOOKUP(F31,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="M31" s="1">
         <v>1005</v>
@@ -4981,13 +5469,13 @@
         <v>4006</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
@@ -4998,7 +5486,7 @@
       </c>
       <c r="G32" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A25)/8),3)</f>
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -5006,7 +5494,7 @@
       <c r="K32" s="2"/>
       <c r="L32" s="2">
         <f ca="1">ROUND(G32*VLOOKUP(F32,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="M32" s="1">
         <v>1006</v>
@@ -5031,13 +5519,13 @@
         <v>4007</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
@@ -5048,7 +5536,7 @@
       </c>
       <c r="G33" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A25)/8),7)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -5056,7 +5544,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2">
         <f ca="1">ROUND(G33*VLOOKUP(F33,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="M33" s="1">
         <v>1007</v>
@@ -5081,13 +5569,13 @@
         <v>4008</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
@@ -5098,7 +5586,7 @@
       </c>
       <c r="G34" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A25)/8),4)</f>
-        <v>2944</v>
+        <v>213</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -5106,7 +5594,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2">
         <f ca="1">ROUND(G34*VLOOKUP(F34,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="M34" s="1">
         <v>1008</v>
@@ -5131,13 +5619,13 @@
         <v>5001</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="E35" s="1">
         <v>4</v>
@@ -5147,7 +5635,7 @@
       </c>
       <c r="G35" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A33)/8),0)</f>
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -5155,7 +5643,7 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2">
         <f ca="1">ROUND(G35*VLOOKUP(F35,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="M35" s="1">
         <v>1001</v>
@@ -5180,13 +5668,13 @@
         <v>5002</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E36" s="1">
         <v>4</v>
@@ -5196,7 +5684,7 @@
       </c>
       <c r="G36" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A33)/8),6)</f>
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -5204,7 +5692,7 @@
       <c r="K36" s="2"/>
       <c r="L36" s="2">
         <f ca="1">ROUND(G36*VLOOKUP(F36,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="M36" s="1">
         <v>1002</v>
@@ -5229,13 +5717,13 @@
         <v>5003</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="E37" s="1">
         <v>4</v>
@@ -5245,7 +5733,7 @@
       </c>
       <c r="G37" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A33)/8),5)</f>
-        <v>2551</v>
+        <v>199</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -5253,7 +5741,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2">
         <f ca="1">ROUND(G37*VLOOKUP(F37,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="M37" s="1">
         <v>1003</v>
@@ -5278,13 +5766,13 @@
         <v>5004</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E38" s="1">
         <v>4</v>
@@ -5294,7 +5782,7 @@
       </c>
       <c r="G38" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A33)/8),2)</f>
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -5302,7 +5790,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2">
         <f ca="1">ROUND(G38*VLOOKUP(F38,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M38" s="1">
         <v>1004</v>
@@ -5327,13 +5815,13 @@
         <v>5005</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1">
         <v>4</v>
@@ -5343,7 +5831,7 @@
       </c>
       <c r="G39" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A33)/8),1)</f>
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -5351,7 +5839,7 @@
       <c r="K39" s="2"/>
       <c r="L39" s="2">
         <f ca="1">ROUND(G39*VLOOKUP(F39,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="M39" s="1">
         <v>1005</v>
@@ -5376,13 +5864,13 @@
         <v>5006</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="E40" s="1">
         <v>4</v>
@@ -5392,7 +5880,7 @@
       </c>
       <c r="G40" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A33)/8),3)</f>
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -5400,7 +5888,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2">
         <f ca="1">ROUND(G40*VLOOKUP(F40,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="M40" s="1">
         <v>1006</v>
@@ -5425,13 +5913,13 @@
         <v>5007</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="E41" s="1">
         <v>4</v>
@@ -5441,7 +5929,7 @@
       </c>
       <c r="G41" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A33)/8),7)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -5449,7 +5937,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2">
         <f ca="1">ROUND(G41*VLOOKUP(F41,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="M41" s="1">
         <v>1007</v>
@@ -5474,13 +5962,13 @@
         <v>5008</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E42" s="1">
         <v>4</v>
@@ -5490,7 +5978,7 @@
       </c>
       <c r="G42" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A33)/8),4)</f>
-        <v>3827</v>
+        <v>299</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -5498,7 +5986,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2">
         <f ca="1">ROUND(G42*VLOOKUP(F42,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="M42" s="1">
         <v>1008</v>
@@ -5523,13 +6011,13 @@
         <v>6001</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="E43" s="1">
         <v>5</v>
@@ -5539,7 +6027,7 @@
       </c>
       <c r="G43" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A41)/8),0)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -5547,7 +6035,7 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2">
         <f ca="1">ROUND(G43*VLOOKUP(F43,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -5564,13 +6052,13 @@
         <v>6002</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E44" s="1">
         <v>5</v>
@@ -5580,7 +6068,7 @@
       </c>
       <c r="G44" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A41)/8),6)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -5588,7 +6076,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2">
         <f ca="1">ROUND(G44*VLOOKUP(F44,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -5605,13 +6093,13 @@
         <v>6003</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="E45" s="1">
         <v>5</v>
@@ -5621,7 +6109,7 @@
       </c>
       <c r="G45" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A41)/8),5)</f>
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -5629,7 +6117,7 @@
       <c r="K45" s="2"/>
       <c r="L45" s="2">
         <f ca="1">ROUND(G45*VLOOKUP(F45,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -5646,13 +6134,13 @@
         <v>6004</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="E46" s="1">
         <v>5</v>
@@ -5662,7 +6150,7 @@
       </c>
       <c r="G46" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A41)/8),2)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -5670,7 +6158,7 @@
       <c r="K46" s="2"/>
       <c r="L46" s="2">
         <f ca="1">ROUND(G46*VLOOKUP(F46,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -5687,13 +6175,13 @@
         <v>6005</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="E47" s="1">
         <v>5</v>
@@ -5703,7 +6191,7 @@
       </c>
       <c r="G47" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A41)/8),1)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -5711,7 +6199,7 @@
       <c r="K47" s="2"/>
       <c r="L47" s="2">
         <f ca="1">ROUND(G47*VLOOKUP(F47,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -5728,13 +6216,13 @@
         <v>6006</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="E48" s="1">
         <v>5</v>
@@ -5744,7 +6232,7 @@
       </c>
       <c r="G48" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A41)/8),3)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -5752,7 +6240,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2">
         <f ca="1">ROUND(G48*VLOOKUP(F48,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -5769,13 +6257,13 @@
         <v>6007</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="E49" s="1">
         <v>5</v>
@@ -5785,7 +6273,7 @@
       </c>
       <c r="G49" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A41)/8),7)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -5793,7 +6281,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2">
         <f ca="1">ROUND(G49*VLOOKUP(F49,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -5810,13 +6298,13 @@
         <v>6008</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E50" s="1">
         <v>5</v>
@@ -5826,7 +6314,7 @@
       </c>
       <c r="G50" s="2">
         <f ca="1">OFFSET([1]佣兵!$J$59,INT(ROW(A41)/8),4)</f>
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -5834,7 +6322,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2">
         <f ca="1">ROUND(G50*VLOOKUP(F50,[1]期望属性!$E$23:$F$38,2,0),0)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -5846,9 +6334,1550 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C54" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F54" t="s">
+        <v>206</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1001</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I54" t="str">
+        <f>CONCATENATE(E54,F54,G54,H54)</f>
+        <v>#servantEquip_1001.png</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C55" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F55" t="s">
+        <v>206</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1002</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" ref="I55:I101" si="1">CONCATENATE(E55,F55,G55,H55)</f>
+        <v>#servantEquip_1002.png</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C56" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" t="s">
+        <v>206</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1003</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_1003.png</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C57" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57" t="s">
+        <v>206</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1004</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_1004.png</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C58" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F58" t="s">
+        <v>206</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1005</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_1005.png</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C59" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F59" t="s">
+        <v>206</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1006</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_1006.png</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C60" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F60" t="s">
+        <v>206</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1007</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_1007.png</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C61" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F61" t="s">
+        <v>206</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1008</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_1008.png</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C62" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" t="s">
+        <v>206</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2001</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_2001.png</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C63" s="1">
+        <v>2002</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" t="s">
+        <v>206</v>
+      </c>
+      <c r="G63" s="1">
+        <v>2002</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_2002.png</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C64" s="1">
+        <v>2003</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" t="s">
+        <v>206</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2003</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_2003.png</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C65" s="1">
+        <v>2004</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F65" t="s">
+        <v>206</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2004</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_2004.png</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C66" s="1">
+        <v>2005</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" t="s">
+        <v>206</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2005</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_2005.png</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C67" s="1">
+        <v>2006</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F67" t="s">
+        <v>206</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2006</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_2006.png</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C68" s="1">
+        <v>2007</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" t="s">
+        <v>206</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2007</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_2007.png</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C69" s="1">
+        <v>2008</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" t="s">
+        <v>206</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2008</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_2008.png</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C70" s="1">
+        <v>3001</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" t="s">
+        <v>206</v>
+      </c>
+      <c r="G70" s="1">
+        <v>3001</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_3001.png</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C71" s="1">
+        <v>3002</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F71" t="s">
+        <v>206</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3002</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_3002.png</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C72" s="1">
+        <v>3003</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" t="s">
+        <v>206</v>
+      </c>
+      <c r="G72" s="1">
+        <v>3003</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_3003.png</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C73" s="1">
+        <v>3004</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F73" t="s">
+        <v>206</v>
+      </c>
+      <c r="G73" s="1">
+        <v>3004</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_3004.png</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C74" s="1">
+        <v>3005</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F74" t="s">
+        <v>206</v>
+      </c>
+      <c r="G74" s="1">
+        <v>3005</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_3005.png</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C75" s="1">
+        <v>3006</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F75" t="s">
+        <v>206</v>
+      </c>
+      <c r="G75" s="1">
+        <v>3006</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_3006.png</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C76" s="1">
+        <v>3007</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76" t="s">
+        <v>206</v>
+      </c>
+      <c r="G76" s="1">
+        <v>3007</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_3007.png</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C77" s="1">
+        <v>3008</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" t="s">
+        <v>206</v>
+      </c>
+      <c r="G77" s="1">
+        <v>3008</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_3008.png</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C78" s="1">
+        <v>4001</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" t="s">
+        <v>206</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4001</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_4001.png</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C79" s="1">
+        <v>4002</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" t="s">
+        <v>206</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4002</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_4002.png</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C80" s="1">
+        <v>4003</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" t="s">
+        <v>206</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4003</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_4003.png</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C81" s="1">
+        <v>4004</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" t="s">
+        <v>206</v>
+      </c>
+      <c r="G81" s="1">
+        <v>4004</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_4004.png</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C82" s="1">
+        <v>4005</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82" t="s">
+        <v>206</v>
+      </c>
+      <c r="G82" s="1">
+        <v>4005</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_4005.png</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C83" s="1">
+        <v>4006</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" t="s">
+        <v>206</v>
+      </c>
+      <c r="G83" s="1">
+        <v>4006</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_4006.png</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C84" s="1">
+        <v>4007</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" t="s">
+        <v>206</v>
+      </c>
+      <c r="G84" s="1">
+        <v>4007</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_4007.png</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C85" s="1">
+        <v>4008</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" t="s">
+        <v>206</v>
+      </c>
+      <c r="G85" s="1">
+        <v>4008</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_4008.png</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C86" s="1">
+        <v>5001</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" t="s">
+        <v>206</v>
+      </c>
+      <c r="G86" s="1">
+        <v>5001</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_5001.png</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C87" s="1">
+        <v>5002</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F87" t="s">
+        <v>206</v>
+      </c>
+      <c r="G87" s="1">
+        <v>5002</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_5002.png</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C88" s="1">
+        <v>5003</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F88" t="s">
+        <v>206</v>
+      </c>
+      <c r="G88" s="1">
+        <v>5003</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_5003.png</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C89" s="1">
+        <v>5004</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" t="s">
+        <v>206</v>
+      </c>
+      <c r="G89" s="1">
+        <v>5004</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_5004.png</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C90" s="1">
+        <v>5005</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F90" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" s="1">
+        <v>5005</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_5005.png</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C91" s="1">
+        <v>5006</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" t="s">
+        <v>206</v>
+      </c>
+      <c r="G91" s="1">
+        <v>5006</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_5006.png</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C92" s="1">
+        <v>5007</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F92" t="s">
+        <v>206</v>
+      </c>
+      <c r="G92" s="1">
+        <v>5007</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_5007.png</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C93" s="1">
+        <v>5008</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F93" t="s">
+        <v>206</v>
+      </c>
+      <c r="G93" s="1">
+        <v>5008</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_5008.png</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C94" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F94" t="s">
+        <v>206</v>
+      </c>
+      <c r="G94" s="1">
+        <v>6001</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_6001.png</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C95" s="1">
+        <v>6002</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F95" t="s">
+        <v>206</v>
+      </c>
+      <c r="G95" s="1">
+        <v>6002</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_6002.png</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C96" s="1">
+        <v>6003</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F96" t="s">
+        <v>206</v>
+      </c>
+      <c r="G96" s="1">
+        <v>6003</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_6003.png</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C97" s="1">
+        <v>6004</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F97" t="s">
+        <v>206</v>
+      </c>
+      <c r="G97" s="1">
+        <v>6004</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_6004.png</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C98" s="1">
+        <v>6005</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F98" t="s">
+        <v>206</v>
+      </c>
+      <c r="G98" s="1">
+        <v>6005</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_6005.png</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C99" s="1">
+        <v>6006</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F99" t="s">
+        <v>206</v>
+      </c>
+      <c r="G99" s="1">
+        <v>6006</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_6006.png</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C100" s="1">
+        <v>6007</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" t="s">
+        <v>206</v>
+      </c>
+      <c r="G100" s="1">
+        <v>6007</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_6007.png</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C101" s="1">
+        <v>6008</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F101" t="s">
+        <v>206</v>
+      </c>
+      <c r="G101" s="1">
+        <v>6008</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="1"/>
+        <v>#servantEquip_6008.png</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>3006</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>3007</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>3008</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>4001</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>4002</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>4003</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>4004</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>4005</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>4006</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>4007</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>4008</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>5001</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>5002</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>5004</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>5005</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>5006</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>5008</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>